--- a/biology/Écologie/Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle/Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle.xlsx
+++ b/biology/Écologie/Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle/Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
+          <t>Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bien qu'il existe plusieurs définitions des espèces envahissantes, elles sont toujours basées[Par qui ?] sur quatre critères principaux : 
 l’origine de l’espèce ;
 la capacité de l’espèce à se reproduire en milieu naturel ;
 la dispersion géographique de l’espèce ;
-et son impact environnemental[1].
+et son impact environnemental.
 Si la plupart des espèces exotiques persistent seulement au travers de petites populations isolées, quelques-unes peuvent adopter un comportement nuisible d'invasion biologique. On voit alors apparaître des populations importantes qui se dispersent au travers des paysages et qui peuvent entrer en compétition avec les espèces indigènes et altérer le fonctionnement des écosystèmes. Les impacts des espèces envahissantes diffèrent selon l’espèce en question et les milieux envahis. Leur position dans les réseaux trophiques et leur capacité de colonisation interviennent sur la nature, l’intensité et l’ampleur des impacts. On distingue généralement les effets écologiques (principalement l'altération du biotope et l'atteinte à la biodiversité), économiques et sanitaires.
 Le nombre des espèces aujourd'hui considérées[Par qui ?] comme envahissantes est élevé et ne cesse de croître. Plusieurs organismes, notamment le groupe de travail international sur les espèces envahissantes de l'IUCN (Union Internationale pour la Conservation de la Nature), Invasive Species Specialist Group, qui administre la Global Invasive Species Database, mettent régulièrement à jour des listes de ces espèces. La liste ci-dessous reprend de manière non exhaustive les espèces les plus nuisibles.
 </t>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
+          <t>Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plantes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plantes terrestres
-Plantes aquatiques</t>
-        </is>
-      </c>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
+          <t>Liste_d'espèces_envahissantes_classées_parmi_les_plus_nuisibles_au_XXIe_siècle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,76 +555,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Animaux</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plathelminthes
-Mollusques
-Arthropodes
-Crustacés
-Insectes
-Chordés
-Poissons
-Amphibiens
-Reptiles
-Oiseaux
-Mammifères</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Champignons</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes_class%C3%A9es_parmi_les_plus_nuisibles_au_XXIe_si%C3%A8cle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Microorganismes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
